--- a/skraped/television_inboxmoviesPortuguese.xlsx
+++ b/skraped/television_inboxmoviesPortuguese.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
@@ -10,8 +10,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection!$A$1:$P$1106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection!$A$1:$P$1106</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
@@ -1954,7 +1958,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
